--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="593">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T10:27:14+00:00</t>
+    <t>2025-07-25T13:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1293,6 +1293,68 @@
   </si>
   <si>
     <t>PV1-44, PV1-45</t>
+  </si>
+  <si>
+    <t>Encounter.period.id</t>
+  </si>
+  <si>
+    <t>Encounter.period.extension</t>
+  </si>
+  <si>
+    <t>Encounter.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>Encounter.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>dateSortie</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
   </si>
   <si>
     <t>Encounter.length</t>
@@ -2099,7 +2161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8585,17 +8647,15 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>201</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>202</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8644,7 +8704,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8656,34 +8716,34 @@
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>205</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>419</v>
+        <v>180</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8699,19 +8759,19 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
+        <v>209</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>422</v>
+        <v>183</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8737,31 +8797,31 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>211</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8773,41 +8833,41 @@
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>426</v>
+        <v>205</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8819,16 +8879,16 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8878,42 +8938,42 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8924,7 +8984,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8936,20 +8996,24 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>283</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="R59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8993,42 +9057,42 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9051,15 +9115,17 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9108,7 +9174,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>204</v>
+        <v>431</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9120,34 +9186,34 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>205</v>
+        <v>436</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9163,19 +9229,19 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>208</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>209</v>
+        <v>441</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>183</v>
+        <v>442</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9201,13 +9267,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9225,7 +9291,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>211</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9237,34 +9303,34 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>205</v>
+        <v>446</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>290</v>
+        <v>439</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9277,26 +9343,24 @@
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>291</v>
+        <v>451</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9344,7 +9408,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>293</v>
+        <v>449</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9356,41 +9420,41 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>133</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9402,17 +9466,15 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>441</v>
+        <v>283</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9461,13 +9523,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9479,24 +9541,24 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9519,13 +9581,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>448</v>
+        <v>202</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>449</v>
+        <v>203</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9552,13 +9614,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9576,7 +9638,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>204</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9588,7 +9650,7 @@
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
@@ -9608,21 +9670,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9634,15 +9696,17 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>453</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>208</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9691,19 +9755,19 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>452</v>
+        <v>211</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
@@ -9712,7 +9776,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>456</v>
+        <v>205</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9723,14 +9787,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9743,24 +9807,26 @@
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>458</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>459</v>
+        <v>291</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>460</v>
+        <v>292</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9808,7 +9874,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>457</v>
+        <v>293</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9820,7 +9886,7 @@
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
@@ -9829,7 +9895,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>462</v>
+        <v>133</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9840,18 +9906,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -9863,19 +9929,19 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>283</v>
+        <v>461</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9925,10 +9991,10 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>90</v>
@@ -9943,24 +10009,24 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9983,13 +10049,13 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>202</v>
+        <v>468</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>203</v>
+        <v>469</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10016,13 +10082,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10040,7 +10106,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>204</v>
+        <v>467</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10052,7 +10118,7 @@
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
@@ -10072,21 +10138,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10098,17 +10164,15 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>473</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>208</v>
+        <v>474</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10157,19 +10221,19 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>211</v>
+        <v>472</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
@@ -10178,7 +10242,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>205</v>
+        <v>476</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10189,14 +10253,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10209,26 +10273,24 @@
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>291</v>
+        <v>479</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>292</v>
+        <v>480</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10276,7 +10338,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>293</v>
+        <v>477</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10288,7 +10350,7 @@
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
@@ -10297,7 +10359,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>133</v>
+        <v>482</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10308,10 +10370,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10334,15 +10396,17 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10391,7 +10455,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10412,21 +10476,21 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10449,13 +10513,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>201</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>202</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>478</v>
+        <v>203</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10506,7 +10570,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>475</v>
+        <v>204</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10518,7 +10582,7 @@
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -10527,7 +10591,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>479</v>
+        <v>205</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10538,21 +10602,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10564,15 +10628,17 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>481</v>
+        <v>208</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10597,13 +10663,13 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -10621,19 +10687,19 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>480</v>
+        <v>211</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -10642,53 +10708,57 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>485</v>
+        <v>205</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>486</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>488</v>
+        <v>291</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10712,13 +10782,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -10736,19 +10806,19 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>487</v>
+        <v>293</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
@@ -10757,21 +10827,21 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10782,7 +10852,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -10794,20 +10864,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -10831,13 +10897,13 @@
         <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>81</v>
@@ -10855,13 +10921,13 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
@@ -10876,21 +10942,21 @@
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>500</v>
+        <v>192</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10901,7 +10967,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
@@ -10913,13 +10979,13 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>225</v>
+        <v>496</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10946,13 +11012,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -10970,13 +11036,13 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
@@ -10991,21 +11057,21 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11016,7 +11082,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -11031,10 +11097,10 @@
         <v>225</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11064,10 +11130,10 @@
         <v>114</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11085,13 +11151,13 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
@@ -11106,21 +11172,21 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11143,13 +11209,13 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>476</v>
+        <v>225</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11176,13 +11242,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11200,7 +11266,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11221,21 +11287,21 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>519</v>
+        <v>205</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11246,7 +11312,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
@@ -11261,13 +11327,17 @@
         <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11294,10 +11364,10 @@
         <v>323</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11315,13 +11385,13 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
@@ -11336,21 +11406,21 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11373,17 +11443,15 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11408,13 +11476,13 @@
         <v>81</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>81</v>
+        <v>525</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11432,7 +11500,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11453,21 +11521,21 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>81</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11478,7 +11546,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>81</v>
@@ -11490,13 +11558,13 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>202</v>
+        <v>530</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>203</v>
+        <v>531</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11523,13 +11591,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -11547,19 +11615,19 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>204</v>
+        <v>529</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
@@ -11568,32 +11636,32 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>205</v>
+        <v>534</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>81</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
@@ -11605,17 +11673,15 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>208</v>
+        <v>537</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>81</v>
@@ -11664,19 +11730,19 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>211</v>
+        <v>536</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
@@ -11685,57 +11751,53 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>205</v>
+        <v>539</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>291</v>
+        <v>542</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -11759,13 +11821,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -11783,19 +11845,19 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>293</v>
+        <v>541</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>81</v>
@@ -11804,21 +11866,21 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>133</v>
+        <v>546</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>81</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11826,10 +11888,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -11841,15 +11903,17 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>537</v>
+        <v>283</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -11898,13 +11962,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -11916,24 +11980,24 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>542</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11956,17 +12020,15 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>544</v>
+        <v>202</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -11991,13 +12053,13 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>547</v>
+        <v>81</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>548</v>
+        <v>81</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -12015,7 +12077,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>543</v>
+        <v>204</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12027,7 +12089,7 @@
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
@@ -12036,7 +12098,7 @@
         <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>549</v>
+        <v>205</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -12047,21 +12109,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12073,16 +12135,16 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>551</v>
+        <v>208</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>552</v>
+        <v>209</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>553</v>
+        <v>183</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12108,13 +12170,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>554</v>
+        <v>81</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>555</v>
+        <v>81</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12132,19 +12194,19 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>550</v>
+        <v>211</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
@@ -12153,7 +12215,7 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
@@ -12164,42 +12226,46 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>557</v>
+        <v>291</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
       </c>
@@ -12247,19 +12313,19 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>556</v>
+        <v>293</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -12268,7 +12334,7 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>387</v>
+        <v>133</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
@@ -12279,10 +12345,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12305,13 +12371,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12362,10 +12428,10 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>90</v>
@@ -12377,27 +12443,27 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>393</v>
+        <v>560</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>564</v>
+        <v>394</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12420,16 +12486,16 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>567</v>
+        <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12455,13 +12521,13 @@
         <v>81</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>81</v>
+        <v>567</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
@@ -12479,7 +12545,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12497,15 +12563,479 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AN89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO89" t="s" s="2">
+      <c r="N90" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T13:53:43+00:00</t>
+    <t>2025-07-28T11:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1826,7 +1826,7 @@
     <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed seperately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.</t>
   </si>
   <si>
-    <t>ESSMS</t>
+    <t>EntiteJuridique</t>
   </si>
   <si>
     <t>.particiaption[typeCode=PFM].role</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T11:47:16+00:00</t>
+    <t>2025-07-28T13:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mapping: Séjours </t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -514,7 +514,7 @@
     <t>Date d’admission dans la structure ESSMS.</t>
   </si>
   <si>
-    <t>dateEntree</t>
+    <t>dateAdmission</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIEntryModelabel</t>
@@ -1322,6 +1322,9 @@
   <si>
     <t xml:space="preserve">per-1
 </t>
+  </si>
+  <si>
+    <t>dateEntree</t>
   </si>
   <si>
     <t>./low</t>
@@ -2205,7 +2208,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.5703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
@@ -8953,27 +8956,27 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8999,20 +9002,20 @@
         <v>414</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>81</v>
@@ -9057,7 +9060,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9072,27 +9075,27 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9115,16 +9118,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9174,7 +9177,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9195,25 +9198,25 @@
         <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9235,13 +9238,13 @@
         <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9270,10 +9273,10 @@
         <v>114</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9291,7 +9294,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9309,28 +9312,28 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9349,16 +9352,16 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9408,7 +9411,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9426,24 +9429,24 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9469,10 +9472,10 @@
         <v>283</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9523,7 +9526,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9544,7 +9547,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9555,10 +9558,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9670,10 +9673,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9787,10 +9790,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9906,14 +9909,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9932,16 +9935,16 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9991,7 +9994,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>90</v>
@@ -10009,24 +10012,24 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10052,10 +10055,10 @@
         <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10085,10 +10088,10 @@
         <v>114</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10106,7 +10109,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10138,10 +10141,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10164,13 +10167,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10221,7 +10224,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10242,7 +10245,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10253,10 +10256,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10279,16 +10282,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10338,7 +10341,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10359,7 +10362,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10370,10 +10373,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10399,13 +10402,13 @@
         <v>283</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10455,7 +10458,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10476,7 +10479,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10487,10 +10490,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10602,10 +10605,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10719,10 +10722,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10838,10 +10841,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10867,10 +10870,10 @@
         <v>187</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10921,7 +10924,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10948,15 +10951,15 @@
         <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10979,13 +10982,13 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11036,7 +11039,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11057,7 +11060,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11068,10 +11071,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11097,10 +11100,10 @@
         <v>225</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11130,10 +11133,10 @@
         <v>114</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11151,7 +11154,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11172,21 +11175,21 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11212,10 +11215,10 @@
         <v>225</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11245,10 +11248,10 @@
         <v>323</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11266,7 +11269,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11293,15 +11296,15 @@
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11327,16 +11330,16 @@
         <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11364,10 +11367,10 @@
         <v>323</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11385,7 +11388,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11406,21 +11409,21 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11446,10 +11449,10 @@
         <v>225</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11479,10 +11482,10 @@
         <v>114</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11500,7 +11503,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11521,21 +11524,21 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11561,10 +11564,10 @@
         <v>225</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11594,10 +11597,10 @@
         <v>114</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -11615,7 +11618,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11636,21 +11639,21 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11673,13 +11676,13 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11730,7 +11733,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11751,21 +11754,21 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11791,10 +11794,10 @@
         <v>225</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11824,10 +11827,10 @@
         <v>323</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -11845,7 +11848,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11866,21 +11869,21 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11906,13 +11909,13 @@
         <v>283</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11962,7 +11965,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11983,7 +11986,7 @@
         <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -11994,10 +11997,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12109,10 +12112,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12226,10 +12229,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12345,10 +12348,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12371,13 +12374,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12428,7 +12431,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>90</v>
@@ -12446,24 +12449,24 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>394</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12489,13 +12492,13 @@
         <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12524,10 +12527,10 @@
         <v>218</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
@@ -12545,7 +12548,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12566,7 +12569,7 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12577,10 +12580,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12606,13 +12609,13 @@
         <v>225</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12641,10 +12644,10 @@
         <v>323</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -12662,7 +12665,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12694,10 +12697,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12723,10 +12726,10 @@
         <v>257</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12777,7 +12780,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12809,10 +12812,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12835,13 +12838,13 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12892,7 +12895,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12907,27 +12910,27 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>393</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12950,16 +12953,16 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13009,7 +13012,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13027,10 +13030,10 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:00:34+00:00</t>
+    <t>2025-07-29T08:16:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T08:16:15+00:00</t>
+    <t>2025-07-30T16:43:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:43:10+00:00</t>
+    <t>2025-07-31T07:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:16:30+00:00</t>
+    <t>2025-07-31T07:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:17:41+00:00</t>
+    <t>2025-07-31T10:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T10:47:16+00:00</t>
+    <t>2025-07-31T12:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
